--- a/BI/data/shots_diff_vs_win_percentage_tableau.xlsx
+++ b/BI/data/shots_diff_vs_win_percentage_tableau.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.183897919434358</v>
+        <v>-7.19254944838481</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>2.380952380952381</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.941217267709867</v>
+        <v>-1.947534508422557</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-7</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.301463384014625</v>
+        <v>3.297480431539697</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         <v>4.23728813559322</v>
       </c>
       <c r="F5" t="n">
-        <v>8.544144035739112</v>
+        <v>8.542495371501953</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>14.70588235294118</v>
       </c>
       <c r="F6" t="n">
-        <v>13.7868246874636</v>
+        <v>13.78751031146421</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         <v>10.52631578947368</v>
       </c>
       <c r="F7" t="n">
-        <v>19.02950533918809</v>
+        <v>19.03252525142646</v>
       </c>
     </row>
     <row r="8">
@@ -597,7 +597,7 @@
         <v>15.01154734411085</v>
       </c>
       <c r="F8" t="n">
-        <v>24.27218599091258</v>
+        <v>24.27754019138872</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +617,7 @@
         <v>24.27007299270073</v>
       </c>
       <c r="F9" t="n">
-        <v>29.51486664263707</v>
+        <v>29.52255513135097</v>
       </c>
     </row>
     <row r="10">
@@ -637,7 +637,7 @@
         <v>27.91044776119403</v>
       </c>
       <c r="F10" t="n">
-        <v>34.75754729436156</v>
+        <v>34.76757007131323</v>
       </c>
     </row>
     <row r="11">
@@ -657,7 +657,7 @@
         <v>36.44859813084112</v>
       </c>
       <c r="F11" t="n">
-        <v>40.00022794608605</v>
+        <v>40.01258501127548</v>
       </c>
     </row>
     <row r="12">
@@ -677,7 +677,7 @@
         <v>48.65951742627346</v>
       </c>
       <c r="F12" t="n">
-        <v>45.24290859781054</v>
+        <v>45.25759995123774</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         <v>53.36134453781513</v>
       </c>
       <c r="F13" t="n">
-        <v>50.48558924953502</v>
+        <v>50.5026148912</v>
       </c>
     </row>
     <row r="14">
@@ -717,7 +717,7 @@
         <v>61.47672552166934</v>
       </c>
       <c r="F14" t="n">
-        <v>55.72826990125952</v>
+        <v>55.74762983116225</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D15" t="n">
         <v>354</v>
       </c>
       <c r="E15" t="n">
-        <v>70.51792828685259</v>
+        <v>70.37773359840955</v>
       </c>
       <c r="F15" t="n">
-        <v>60.97095055298401</v>
+        <v>60.9926447711245</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D16" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E16" t="n">
-        <v>75.76687116564416</v>
+        <v>75.98784194528876</v>
       </c>
       <c r="F16" t="n">
-        <v>66.21363120470849</v>
+        <v>66.23765971108676</v>
       </c>
     </row>
     <row r="17">
@@ -777,7 +777,7 @@
         <v>80.53435114503816</v>
       </c>
       <c r="F17" t="n">
-        <v>71.45631185643299</v>
+        <v>71.48267465104901</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" t="n">
-        <v>83.33333333333334</v>
+        <v>83.4319526627219</v>
       </c>
       <c r="F18" t="n">
-        <v>76.69899250815747</v>
+        <v>76.72768959101127</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" t="n">
-        <v>89.83050847457628</v>
+        <v>90</v>
       </c>
       <c r="F19" t="n">
-        <v>81.94167315988196</v>
+        <v>81.97270453097352</v>
       </c>
     </row>
     <row r="20">
@@ -837,7 +837,7 @@
         <v>87.87878787878788</v>
       </c>
       <c r="F20" t="n">
-        <v>87.18435381160646</v>
+        <v>87.21771947093578</v>
       </c>
     </row>
     <row r="21">
@@ -857,7 +857,7 @@
         <v>85.71428571428571</v>
       </c>
       <c r="F21" t="n">
-        <v>92.42703446333095</v>
+        <v>92.46273441089804</v>
       </c>
     </row>
     <row r="22">
@@ -877,7 +877,7 @@
         <v>95.83333333333334</v>
       </c>
       <c r="F22" t="n">
-        <v>97.66971511505542</v>
+        <v>97.7077493508603</v>
       </c>
     </row>
     <row r="23">
@@ -897,7 +897,7 @@
         <v>84.61538461538461</v>
       </c>
       <c r="F23" t="n">
-        <v>102.9123957667799</v>
+        <v>102.9527642908225</v>
       </c>
     </row>
   </sheetData>
